--- a/500all/speech_level/speeches_CHRG-114hhrg96084.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96084.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Whitfield</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Whitfield. I would like to call the hearing to order this morning. Today we are having a hearing on a draft bill, Title II of the 21st Century Workforce, and we have a distinguished panel of witnesses with us this morning. And I am not going to introduce you now, but I am going to introduce you just prior to your 5-minute statement. But we do thank you for joining us this morning. And I would like to recognize myself for 5 minutes for an opening statement.    First, I want to thank Bobby Rush as well as Bill Flores, Gene Green, and Richard Hudson for sponsoring the bipartisan discussion draft that we will be talking about today entitled the 21st Century Workforce. This discussion draft will become part of our larger energy legislation that we will be rolling out in the weeks ahead. I have already complimented you, Bob, and thank you for coming.    As we all know, the domestic energy sector is undergoing dramatic changes. Thanks to American innovations, our decades of declining oil and natural gas production have given way to tremendous increases in output. The Energy Information Administration recently projected that the United States will eliminate net energy imports by the year 2030. This abundant and affordable energy is sparking new manufacturing activity in the United States.    America's energy and manufacturing renaissance is also leading to a jobs renaissance. Energy and energy-related employment has been one of the few economic bright spots in recent years, everything from those employed discovering and producing energy to those constructing and operating the infrastructure to transport it, to the new factories that are powered by it.    But America's energy transformation has some problems because we are now finding that we need more trained workers in these areas, skilled workers. So there are many opportunities out there, and this is what this legislation is all about, trying to assist in the development of these new job opportunities.    As you know, we have also had a lot of people lose their job as we make this transformation in energy. Certainly, in the coal sector they have been hit very hard. And so we have a great opportunity here. I know the Department of Energy has already expressed an interest in developing a jobs program, but we feel like it is important to provide some guidance in that, and as I said earlier, Bobby Rush has been talking about this for some time, and actually, his draft was the basis for this Title II.    So we have a unique opportunity here in our broader energy bill to address this issue, and that is what we hope to do. And we hope that your testimony will provide us some insights on your thoughts on this important subject.</t>
   </si>
   <si>
@@ -67,36 +64,24 @@
     <t>400160</t>
   </si>
   <si>
-    <t>Gene Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman. I want to thank you and the ranking member for holding the hearing today, and I want to thank our witnesses for coming and testifying today. Specifically, I would like to acknowledge Dr. Ramanan Krishnamoorti, the Chief Energy Officer at the University of Houston. Being a graduate of University of Houston College of Business and going back there to law school, I can't say too many nice things about it because it gave me the education I have. And what Dr. Krishnamoorti and his colleagues are doing in the energy field are amazing. I stated before; we can't say it enough. Texas is leading the Nation producing results. This time it is our energy workforce development. Thanks to the University of Houston, San Jacinto Community College, ExxonMobil, and other stakeholders, Houston is launching a pad for efforts like these contained in this legislation today. The University of Houston partnered with the Energy Institute High School to engage high school students and get them interested in working in the energy field. The Texas Gulf Coast Community College Consortium is addressing the workforce need of our industries. The Community College Petrochemical Initiative is a public/private partnership that is unique to the industry. Through programs like the University of Houston Partner, the TGCCCC and CPI, industry job opportunities become realities.    I look forward to working with my colleagues on this legislation to ensure that success that we have in East Harris County where I represent the refineries and chemical plants continues and is duplicated nationwide. And I yield back my time. Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. The gentleman yields back, and that concludes the opening statements. So now we will get to our panel of witnesses. Once again, thanks for being with us this morning. I will introduce you individually and give you each opportunity for 5 minutes for an opening statement.    So our first witness is Dr. Tracy Brundage who is the Vice President of the Workforce Development and Continuing Education at Pennsylvania College of Technology on behalf of Shale NET. So Dr. Brundage, you are recognized for 5 minutes, and the little red lights will come on when your 5 minutes is up. There are two little boxes on the desk, but we do look forward to your testimony. And thanks for being with us, and just be sure to turn the microphone on so we all can hear.</t>
   </si>
   <si>
-    <t>Brundage</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Brundage. Good morning. Thank you, subcommittee members, for the opportunity to speak about the need for workforce development and training in energy and related industries. My name is Tracy Brundage. I am the Vice President for Workforce Development at the Pennsylvania College of Technology, a special mission affiliate of Penn State committed to applied technology education.    My testimony today will focus on Shale NET, a partnership of training providers, economic development, the public workforce system and employers who responded to the call from the energy industry for a trained workforce.    When we ask executives in the gas and oil industry what keeps them up at night, many will respond by expressing their concerns regarding the great crew change. The energy industry is facing a mass exodus of talent and experience. In order for the industry to succeed in the 21st century, it must continue to recruit and retain talent from a more diverse labor pool. The industry must be prepared for the inevitable departure of a large number of workers who are retiring.    To address these challenges, industry, government, the public workforce investment system, economic development agencies, education, and training providers must create the kind of educational infrastructure that will provide a qualified workforce the industry needs. Our work, through Shale NET, over the last several years, has focused on building this infrastructure.    In 2010 Penn College, Westmoreland County Community College in Pennsylvania, and 18 other training providers across Ohio, Pennsylvania, West Virginia, and New York came together to create Shale NET. We were awarded $4.96 million from the U.S. Department of Labor's Community-Based Job Training Grant Initiative to develop and implement a 3-week training program that exposes students to expectations of the industry related to job readiness skills, safety, and technical awareness.    The curriculum was designed from input from industry, stressed consistency of content, and awarded competency-based in industry-recognized credentials. Though the program was open to all, special efforts were directed to recruit veterans, the unemployed, and underemployed. The results for Shale NET are stellar. Over 14,000 individuals explored the Talent Match Web site which provides realistic job profiles of energy occupations and information about the industry. Over 1,100 completed practical training, and almost 3,500 obtained job. The placement rate was 79 percent, and retention three quarters after placement was 82 percent.    In October 2012, Shale NET was awarded a U.S. Department of Labor Trade Adjustment Assistance in Community College and Career Training, known as TAACCCT, Round II grant for $14.96 million which combines the short-term programming of the initial Shale NET grant with stackable college credit offerings.    Shale NET is a best-practice model that can be deployed and implemented in other areas because the curriculum is competency-based, developed with input from industry, consistent, easily replicated, and flexible, dependent upon industry needs. The success of Shale NET is a direct result of strong partnerships with employers and trade associations, workforce investment boards, one stops, economic development agencies such as the Pittsburgh-based Allegheny Conference on Community Development, and local governments who share a common desire to place qualified candidates with employers and family-sustaining careers.    Several innovative strategies are being deployed by Shale NET to bring blended technical curriculum to remote areas, veterans, and underserved populations. One strategy uses state-of-the-art 3D immersive technology and artificial intelligence to assess and teach more advanced technical skills related to natural gas and oil production in a simulated environment. These methodologies create enormous cost savings for educational institutions, embrace leading edge technology honed by the U.S. Department of Defense to train and assess competencies and make capacity-building more feasible and efficient.    For future programs that are introduced to meet energy workforce needs, there are several factors that are imperative: to establish public/private partnerships that become the backbone of developing a broad array of training options across the geography of the United States; to target federal funding in promoting regional collaborations that align with industry's multi-state operations; and to direct funding where the impact is greatest to support energy training initiatives that secure jobs for America's workforce.    Our job is not yet done. Thanks again for this opportunity to speak on Shale NET's behalf.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Thank you, Dr. Brundage. And our next witness is Dr. Rick Jarvis, who is Vice President of Field Construction, Morrow-Meadows Corporation, on behalf of the National Electrical Contractors Association. So, Mr. Jarvis, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Jarvis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jarvis. Thank you, Chairman Whitfield, Ranking Member Rush, and members of the subcommittee for inviting me here to testify today at this important hearing. On behalf of the National Electrical Contractors Association, the nationally recognized voice of the electrical construction industry, thank you for holding this important hearing regarding the workforce development needs of the energy and manufacturing sectors.    My name is Rick Jarvis, and I serve as Vice President of Field Construction for Morrow-Meadows Corporation, a premier electrical and data communications contractor on the West Coast. I am pleased to be here on behalf of the National Electrical Contractors Association, also known as NECA. NECA is comprised of over 60,000 electrical contracting firms employing over 750,000 electrical workers and producing an annual volume of over $130 billion.    Growth and diversification in the energy economy have created unprecedented opportunities for the electrical construction industry. A record 60 percent of electrical contractors are currently performing work on energy construction projects. Unfortunately, the availability of skilled labor and an aging workforce threatens our ability to continue to meet the demands of the market.    According to the Bureau of Labor Statistics, the anticipated number of job openings for electricians due to growth and retirement from 2012 to 2022 is roughly 224,000. Recruiting new talent to our apprenticeship training program is crucial to the success and future of our industry, and we are working hard to recruit new talent to join the trade.    For over 70 years, the electrical construction industry has been investing $100 million annually in its successful privately funded apprenticeship and training program. This joint venture between NECA and the International Brotherhood of Electrical Workers, the IBW, which I am still a member, gives participants the opportunity to learn the electrical industry while getting paid and without a college education. We are proud of the opportunities offered by our apprenticeship training programs around the country.    I for one am an example of what an apprenticeship program can do for a person. After high school, I worked several different jobs before entering a 4-year IBW-NECA electrical apprenticeship program in 1982. During the course of my training, I earned college credits and learned the difference between a job and a career. After completing my apprenticeship, I rose from journeyman electrician to foreman, then to general foreman. In 1991 I was promoted to the general field superintendent for the Morrow-Meadows San Diego branch office. Four years later I was promoted again, this time to the general field superintendent of their corporate division in Los Angeles, California, where I now hold the position of Vice President of Field Construction.    The IBW-NECA apprenticeship program has trained over 375,000 electricians like myself including an increasing number of minorities, women, and veterans, a focus that we have today. Attracting young talent to this program and others like it is key to meeting workforce demands across the energy sectors.    NECA is proud to support this committee's discussion draft and the committee's efforts to address the workforce development needs of the energy industry. I hope my own experience in this apprenticeship program can serve as a testament to the opportunities for upward mobility that learning a skilled trade can present. We are hopeful that as the Federal Government works to address the workforce development needs on the energy and manufacturing sectors, it assists our industry by actively promoting apprenticeships as a well-paying career option.    We appreciate the committee's interest in collaborating with electrical contractors as mentioned in the draft language. Our training programs are all about skill development for the 21st century workforce. I am happy to take any questions, and we look forward to continued work with this committee as it moves forward with this worthwhile process. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Well, thank you, Mr. Jarvis. And our next witness is Dr. Ramanan Krishnamoorti who is the Chief Energy Officer at the University of Houston. And I am excited you all have a Chief Energy Officer down there at the University of Houston. But thanks for being with us, and you are recognized for 5 minutes for an opening statement.</t>
   </si>
   <si>
-    <t>Krishnamoorti</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Krishnamoorti. Chairman Whitfield, Ranking Member Rush----</t>
   </si>
   <si>
@@ -109,9 +94,6 @@
     <t xml:space="preserve">    Mr. Whitfield. Thank you very much, Dr. Krishnamoorti. Our next witness is Monica Martinez who is the President of Hispanics in Energy. So thanks for being with us, and you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Martinez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Martinez. Thank you, Mr. Chairman Whitfield and Ranking Member Rush and members of the subcommittee. I want to thank you for the opportunity to testify today on Title II: 21st Century Workforce.</t>
   </si>
   <si>
@@ -121,9 +103,6 @@
     <t xml:space="preserve">    Ms. Martinez. Oh, sure. I commend each of you for taking the time to focus on ensuring that America has a strong, diverse energy and manufacturing workforce. It is a privilege to be here today to support the bipartisan draft legislation that is aimed at accomplishing this critical priority.    I am Monica Martinez, President of Hispanics in Energy. Hispanics in Energy is a non-partisan, non-profit organization whose mission is to engage Hispanic and other diverse communities in our Nation's energy policy dialogue and workforce. And thank you, Congressman Flores, for being a continued supporter.    Our population is over 54 million, making people of Hispanic origin the Nation's largest ethnic or racial minority. At 11.9 million Hispanic households, we comprise roughly 10 percent of our Nation's total households.    For 2012, the median income of Hispanic households was $39,000 whereas the median income of U.S. households was $51,017. The poverty rate among Hispanics is roughly 25.6 percent, whereas the national poverty rate is at 15 percent.    I mention these figures to make sure I am illustrating the disparity that exists. But I also find them useful in the debate when we discuss jobs and economic opportunity. The best way to help alleviate poverty and to grow household income is to expand the outreach and availability of good paying jobs. And I believe that for Hispanics, African Americans, American Indians, women, and all Americans, access to economic opportunity in the energy field can be crucial for helping boost those earnings and bring about greater standards of living.    We have heard about the shale revolution and even more so even when we talk about green energy economy. We know that there are job opportunities available. Recent reports, even ones by HIS, project that there are up to 408,000 jobs available that can be held by African Americans and Hispanics by 2030 in the oil and gas sector. IHS estimates that 63 percent of all job opportunities will be blue collar jobs. This is a truly bipartisan and energy technology neutral opportunity. We know that even the green sector is growing, and they are moving as well. And I think we need to take advantage of it.    Hispanics in Energy over the last year has held community conversations across the country discussing this very opportunity. From that effort we have learned several things. General dissemination of energy opportunities to a variety of stakeholders is key.    Recent research indicates that the number one obstacle to women considering employment in the oil and gas industry is lack of awareness and understanding of the job opportunities and career development available. Just by outreaching and making sure we are sharing the message, we can overcome this obstacle.    Engagement of students at all levels from when they are young sprouts, early age in elementary and beyond, is critical to engaging them. When we think about it, of the 70,000 undergraduate engineers, only 12 percent represent all under-represented groups, and the pool of under-represented engineers gets even smaller at the graduate level. We must do something to change this.    We also need to expand the network of engagement by energy providers and companies to create a pipeline of prospective networks, and this includes working with various groups--veterans workforce development associations, other associations like our own--to create that partnership within that non-profit and public/private sector is key.    The fourth principle is really thinking about pathways that need to be developed for different demographic groups and segments of the population. I recognize the Center for Energy Workforce Development that can attest that the education and skills needed are the same for everyone, but the best way to prepare individuals may in fact be different. And this may include different wrap-around services or other items to help ensure their success.    The last principle I mention, and this is because I was a former regulator within the State of Michigan, and my question always was, we have to look at the data and analyze, just making sure everything that you do--and I know this is mentioned in the draft legislation--look at the analysis and create benchmarks. We need to assess the performance and also find and discover best practices so that what we are doing in one region can be replicated in other regions as appropriate. Those are key.    In closing, I just really want to thank the committee for their work. If we do not take action today to improve the opportunities for under-represented communities in the workforce, we will be only adding to the current disparity that exists between the energy industry and the community it serves. The energy industry can be more reflective of the characteristics of our population, and by doing so, our whole economy will benefit. Thank you.</t>
   </si>
   <si>
-    <t>Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wilson. Mr. Chairman, Ranking Member Rush, and the other members of the committee, my deepest gratitude.    I am a 36-year-old black man who was raised in the South Side Englewood neighborhood of Chicago. I was born to a single, teenage mother, Elizabeth Wilson, and have two younger siblings, Natasha and Tabitha Wilson. My mother's parents died while she was in her teens. My father played no role in our lives. Today I don't know if he is dead or alive.    We were poor. My family received SNAP benefits, and a small amount of money that my mother received afforded us a very humble apartment during a period in Chicago where the murder rate was nearly twice the rate it is today. Despite my impoverished circumstances, I matriculated through the Chicago Public School System and graduated from Lindblom Technical High School. In 1996, my joy of having survived to the age of 17 and graduating high school displaced my need to put together a long-term life strategy and plan of execution. That lack of having specific goals contributed to me becoming a teenage husband and father, ready to repeat the cycle that is commonplace amongst those in communities similar to mine. The walls of hopelessness and poverty waited to trap yet another tenant and disrupt the generational foundation necessary to break this destructive cycle.    The birth of my firstborn, Erin Wilson, provided me an opportunity to be a man whose values and principles would be the polar opposite of the man responsible for my birth. That opportunity came in the form of a career serving in the U.S. Navy as a nuclear operator and submariner. My 6-year career provided me the base knowledge and unique skill set that was attractive and needed by the commercial nuclear industry.    Exelon Nuclear gave me my first opportunity as an IBEW union chemistry technician and instructor. That opportunity set a trajectory which allowed me to obtain my senior reactor operator certification for training in December 2013. Since Exelon, I have worked at various commercial sites. Every job I have had in the industry has provided me with at least $100,000 annual income. The new awareness of this life-changing career path inspired me to partner with my best friend, Dion Clark, of TCI Solutions, also a Navy nuclear operator and senior reactor operator certified trainer. Though Dion served as part of the Navy surface fleet, we won't hold that against him. Dion, a product of Chicago's South Side Robbins neighborhood, and I decide that we wanted to share the opportunity we had been given with our community, the under-represented, disadvantaged, and underserved. Our philosophy was simple: If we could make it, so could they.    And here is how: We created the Legacy Initiative, a program that is rooted in the concept of teaching young people how to think critically. Our youth span from elementary through high school, and we challenge them to take a moment and ask, with this decision, is what I am about to gain worth what I might lose? We incentivize this intrinsic behavioral change by using ourselves as muses, making them aware of the opportunity and educating them on how to attain these opportunities.    From 2008 until now, we have taught our character development and logic curriculum to more than 4,000 youth in Chicagoland, Arizona, and Pennsylvania. We have partnered with the Center for Energy and Workforce Development. We are now implementing the second phase of our strategy to pipeline these young people to those post-secondary institutions that have 2- and 4-year STEM degrees. These individuals in turn will become the qualified, skilled workforce that the energy and manufacturing industries need.    This bill would make what were a series of chance encounters and good timing for me into a template for deliberate, rewarding strategies for those demographics I represent and more. As evidence, I offer that my daughter, who graduates in June from Kenwood Academy in Chicago, will be entering the historically black university, Howard, majoring in nuclear engineering. My oldest son, Willie Hampton, graduates next year and intends on obtaining his 2-year technology degree, getting a job as a nuclear operator, taking courses while he is utilizing his company's tuition reimbursement benefit, and then graduate with his undergraduate degree at the same time as his high school classmates. But he will have 2 years of work experience, having enjoyed a six-figure income and having no debt.    Our paths like the ones funded and supported by this bill ensures that my 5-year-old son, Charles Wilson II, and others in his generation don't have to experience poverty and can start to build the generational wealth and opportunity that evaded the generations before them. Thank you.</t>
   </si>
   <si>
@@ -187,9 +166,6 @@
     <t>400320</t>
   </si>
   <si>
-    <t>Joseph R. Pitts</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pitts. Thank you, Mr. Chairman. Let me continue with you, Mr. Wilson. You have a compelling story. I really appreciate hearing it. And you went in the Navy, and that was the key. What were your skills before you went in and how was the Navy effective in changing your skill level?</t>
   </si>
   <si>
@@ -229,9 +205,6 @@
     <t>412189</t>
   </si>
   <si>
-    <t>Jerry McNerney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McNerney. I enjoy being the first one with 3 minutes, Mr. Chairman. No, I want to thank the chairman and the ranking member for their work on this and the panelists. They have very good testimony. We have the Labor Statistics' unemployment rate for African Americans at 10 percent, more than twice that for whites. Hispanics, almost as bad, some of the statistics that Ms. Martinez raised. And then on the other hand, we have all these opportunities in the energy industry. Solar industry grew 86 percent since 2010. Wind industry, 73,000 full-time workers. Energy efficiency, 1.3 to 1.9 million new jobs by 2050. So we have it and we have opportunity. What are we going to do about it? Well, we have some ideas up here on the panel. I thank you very much for that.    Dr. Brundage, I am very excited by Shale NET. I haven't heard anything about it before. I am going to ask my staff to get a copy of a description of that, see how applicable that would be. Could you give me some idea how Shale NET is funded?</t>
   </si>
   <si>
@@ -253,9 +226,6 @@
     <t>412280</t>
   </si>
   <si>
-    <t>Gregg Harper</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Harper. Thank you, Mr. Chairman. Thanks to each of you for being here on a very important topic, and I, too, would like to say, Mr. Wilson, thank you for the inspiring story. And I am not one who wants to brag on my academic accomplishments, but I did graduate in the top 100 percent of my class. So I wanted to go ahead and throw that out. It was close, too, by the way.    Mr. Jarvis, you talked about the importance of having a flexible workforce available to adapt to emerging trends. Can you give me an example of what you mean when you say it is unnecessary and short-sighted to train someone in a single technology?</t>
   </si>
   <si>
@@ -286,9 +256,6 @@
     <t>412209</t>
   </si>
   <si>
-    <t>David Loebsack</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Loebsack. Thank you, Mr. Chair, and our ranking member. This really is a really great opportunity to hear from you folks. It has been kind of an eclectic panel I think to say the least, a lot of different things that have been mentioned here.    I might ask just one question. I do want to just make some comments about workforce development more generally, and I do want to kind of throw a question at you folks that may be unfair and probably should be directed more at my colleagues and as we work through this bill and do what we can to make it better eventually. But I was on the Education in the Workforce Committee for 8 years, and we dealt with a lot of these issues on that committee. We passed the Workforce Innovation Opportunity Act last year which was the reauthorization of the Workforce Investment Act. There is a huge overlap between what we are talking about today here with respect to the Department of Energy and the various things that have been talked about today and what the Department of Labor does. And I know the Administration is trying to interface some of the agencies and what they do.    And again, Mr. Chair and Ranking Member, this is something I would like to be working with you folks on down the road, sort of how can we get some of these agencies to talk to one another and work together and streamline some of these programs, maybe combine some of the efforts if possible? But I do want to ask, and it is kind of an unfair question, I admit, to all of you, because you are nodding. If you will, Doctor, any thoughts about how we might be able to do that instead of reinventing the wheel every time, having one department do something, have another department do something that might be similar to what that department is doing. Any thoughts about that at all? I know it is throwing you folks for a loop here, and maybe I am doing the same thing to my colleagues.</t>
   </si>
   <si>
@@ -343,9 +310,6 @@
     <t>412487</t>
   </si>
   <si>
-    <t>David B. McKinley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McKinley. Thank you, Mr. Chairman. I had probably 5 minutes of questioning. We are going to try to cut it back down to three. The first observation I had about this whole issue--I was really looking forward to be educated about this, and I think some of you have touched on it. But the primary issue is about rural America. I think we struggle. Coming from West Virginia in a small community is how do we have an educated workforce, ready for manufacturing, energy, when we don't have a critical mass? So I am applauding--what we did last year in the last Congress, we introduced a bill. It was 3524 that tried to focus funds going into economically deprived communities to help out, to plus them up some in the grants and programs for education. I think we ought to be looking at that as well. I don't know whether any of you are familiar with that bill that was introduced last year, but I know that Tracy, you got something going at Penn College that is also at Pierpont where we have a training program there for Shale NET.</t>
   </si>
   <si>
@@ -409,9 +373,6 @@
     <t>412460</t>
   </si>
   <si>
-    <t>Bill Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman. Dr. Brundage, thanks largely to the oil and gas industry, coupled with programs like Shale NET that is in our state there at State College, unemployment in shale counties in my district in Eastern and Southeastern Ohio has fallen 66 percent since 2010. In fact, these shale counties are the economic impacts, the positive economic impacts. So the shale plays--that is what is driving the unemployment rate down for our entire state.    And because of this, we have got to continually look for opportunities like Shale NET to prepare our students for the jobs that are here today and that are coming tomorrow.    Quick question. If the goal of Shale NET is to increase capacity in terms of qualified workforce to meet the needs of the industry, how successful in your view has Shale NET been? Can you give us some specifics?</t>
   </si>
   <si>
@@ -427,9 +388,6 @@
     <t>412212</t>
   </si>
   <si>
-    <t>John P. Sarbanes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sarbanes. Thank you, Mr. Chairman. I want to thank all of you for your testimony. Ms. Martinez and Mr. Wilson, I wanted to ask this question. Obviously in the STEM arena we want to make sure that the academic curriculum that is offered in the classroom for young people in that K-12 space is as rigorous and holistic as it can possibly be. But I am also interested in the opportunities to connect young people with the experiences outside the classroom, in a sense, get them out of the classroom in various ways so maybe their horizons are broadened and they can see the connection to that pipeline opportunity that exists.    So if each of you could just very briefly comment on that idea of how we get young people in the K-12 space out of the classroom and connected to these career horizons, that would be helpful.</t>
   </si>
   <si>
@@ -455,9 +413,6 @@
   </si>
   <si>
     <t>412480</t>
-  </si>
-  <si>
-    <t>Bill Flores</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Flores. Thank you, Mr. Chairman. I want to thank you and also Ranking Member Rush for hosting this hearing today. I also want to thank each of you for your testimony. Given the timing and how little time we have left to vote, I am going to commend each of you for the jobs that you have done. I commend you for the quality of your testimony. Mr. Wilson, all I can say is wow. What an awesome piece of testimony. Ms. Martinez, thank you for what you are doing.    I think given the lack of time we have, I will just submit my questions in writing. Thank you.</t>
@@ -862,11 +817,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -888,11 +841,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -914,11 +865,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -938,13 +887,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -966,11 +913,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -992,11 +937,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1018,11 +961,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1044,11 +985,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1070,11 +1009,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1096,11 +1033,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1122,11 +1057,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1148,11 +1081,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1174,11 +1105,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1200,11 +1129,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1226,11 +1153,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1252,11 +1177,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1278,11 +1201,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>35</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1304,11 +1225,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1330,11 +1249,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
         <v>31</v>
-      </c>
-      <c r="H20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1356,11 +1273,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1382,11 +1297,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>31</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1408,11 +1321,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1434,11 +1345,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1460,11 +1369,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1486,11 +1393,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>35</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1512,11 +1417,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1538,11 +1441,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>23</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1564,11 +1465,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1590,11 +1489,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>26</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1616,11 +1513,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1642,11 +1537,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>20</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1668,11 +1561,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1694,11 +1585,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>35</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1720,11 +1609,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1746,11 +1633,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>35</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1772,11 +1657,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1798,11 +1681,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>35</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1824,11 +1705,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1848,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
-      </c>
-      <c r="G40" t="s">
-        <v>57</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1876,11 +1753,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>35</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1900,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G42" t="s">
-        <v>57</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1928,11 +1801,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>35</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1952,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" t="s">
-        <v>57</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1980,11 +1849,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>35</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2004,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
         <v>56</v>
-      </c>
-      <c r="G46" t="s">
-        <v>57</v>
-      </c>
-      <c r="H46" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2032,11 +1897,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>35</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2056,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48" t="s">
-        <v>57</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2084,11 +1945,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>35</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2108,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" t="s">
-        <v>57</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2136,11 +1993,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2160,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>70</v>
-      </c>
-      <c r="G52" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2188,11 +2041,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>20</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2212,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>70</v>
-      </c>
-      <c r="G54" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2240,11 +2089,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>23</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2264,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>70</v>
-      </c>
-      <c r="G56" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2292,11 +2137,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2316,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
-      </c>
-      <c r="G58" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2344,11 +2185,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>23</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2368,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>78</v>
-      </c>
-      <c r="G60" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2396,11 +2233,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>23</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2420,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>78</v>
-      </c>
-      <c r="G62" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2448,11 +2281,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>23</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2472,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>78</v>
-      </c>
-      <c r="G64" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2500,11 +2329,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>23</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2526,11 +2353,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2550,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>89</v>
-      </c>
-      <c r="G67" t="s">
-        <v>90</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2578,11 +2401,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>35</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2602,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>89</v>
-      </c>
-      <c r="G69" t="s">
-        <v>90</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2630,11 +2449,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>35</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2654,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>89</v>
-      </c>
-      <c r="G71" t="s">
-        <v>90</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2682,11 +2497,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>35</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2706,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>89</v>
-      </c>
-      <c r="G73" t="s">
-        <v>90</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2734,11 +2545,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>35</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2758,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>89</v>
-      </c>
-      <c r="G75" t="s">
-        <v>90</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2786,11 +2593,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>35</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2810,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>89</v>
-      </c>
-      <c r="G77" t="s">
+        <v>79</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
         <v>90</v>
-      </c>
-      <c r="H77" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2838,11 +2641,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>35</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2862,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>89</v>
-      </c>
-      <c r="G79" t="s">
-        <v>90</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2890,11 +2689,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>26</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2914,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>89</v>
-      </c>
-      <c r="G81" t="s">
-        <v>90</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2942,11 +2737,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>26</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2966,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>89</v>
-      </c>
-      <c r="G83" t="s">
-        <v>90</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2994,11 +2785,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3018,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>108</v>
-      </c>
-      <c r="G85" t="s">
-        <v>109</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3046,11 +2833,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>20</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3070,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>108</v>
-      </c>
-      <c r="G87" t="s">
-        <v>109</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3098,11 +2881,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>20</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3122,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>108</v>
-      </c>
-      <c r="G89" t="s">
-        <v>109</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3150,11 +2929,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>20</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3174,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>108</v>
-      </c>
-      <c r="G91" t="s">
-        <v>109</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3202,11 +2977,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3228,11 +3001,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>20</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3254,11 +3025,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3278,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3306,11 +3073,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>20</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3330,13 +3095,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3358,11 +3121,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>20</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3382,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3410,11 +3169,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>26</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3434,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3462,11 +3217,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>26</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3486,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3514,11 +3265,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3538,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>130</v>
-      </c>
-      <c r="G105" t="s">
-        <v>131</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3566,11 +3313,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>20</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3590,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>130</v>
-      </c>
-      <c r="G107" t="s">
-        <v>131</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3618,11 +3361,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3642,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>136</v>
-      </c>
-      <c r="G109" t="s">
-        <v>137</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3670,11 +3409,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>31</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3694,13 +3431,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>136</v>
-      </c>
-      <c r="G111" t="s">
-        <v>137</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3722,11 +3457,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>31</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3746,13 +3479,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>136</v>
-      </c>
-      <c r="G113" t="s">
-        <v>137</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3774,11 +3505,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>35</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3798,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>136</v>
-      </c>
-      <c r="G115" t="s">
-        <v>137</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3826,11 +3553,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3850,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>146</v>
-      </c>
-      <c r="G117" t="s">
-        <v>147</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3878,11 +3601,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96084.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96084.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="158">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Whitfield</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Whitfield. I would like to call the hearing to order this morning. Today we are having a hearing on a draft bill, Title II of the 21st Century Workforce, and we have a distinguished panel of witnesses with us this morning. And I am not going to introduce you now, but I am going to introduce you just prior to your 5-minute statement. But we do thank you for joining us this morning. And I would like to recognize myself for 5 minutes for an opening statement.    First, I want to thank Bobby Rush as well as Bill Flores, Gene Green, and Richard Hudson for sponsoring the bipartisan discussion draft that we will be talking about today entitled the 21st Century Workforce. This discussion draft will become part of our larger energy legislation that we will be rolling out in the weeks ahead. I have already complimented you, Bob, and thank you for coming.    As we all know, the domestic energy sector is undergoing dramatic changes. Thanks to American innovations, our decades of declining oil and natural gas production have given way to tremendous increases in output. The Energy Information Administration recently projected that the United States will eliminate net energy imports by the year 2030. This abundant and affordable energy is sparking new manufacturing activity in the United States.    America's energy and manufacturing renaissance is also leading to a jobs renaissance. Energy and energy-related employment has been one of the few economic bright spots in recent years, everything from those employed discovering and producing energy to those constructing and operating the infrastructure to transport it, to the new factories that are powered by it.    But America's energy transformation has some problems because we are now finding that we need more trained workers in these areas, skilled workers. So there are many opportunities out there, and this is what this legislation is all about, trying to assist in the development of these new job opportunities.    As you know, we have also had a lot of people lose their job as we make this transformation in energy. Certainly, in the coal sector they have been hit very hard. And so we have a great opportunity here. I know the Department of Energy has already expressed an interest in developing a jobs program, but we feel like it is important to provide some guidance in that, and as I said earlier, Bobby Rush has been talking about this for some time, and actually, his draft was the basis for this Title II.    So we have a unique opportunity here in our broader energy bill to address this issue, and that is what we hope to do. And we hope that your testimony will provide us some insights on your thoughts on this important subject.</t>
   </si>
   <si>
@@ -64,24 +70,39 @@
     <t>400160</t>
   </si>
   <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman. I want to thank you and the ranking member for holding the hearing today, and I want to thank our witnesses for coming and testifying today. Specifically, I would like to acknowledge Dr. Ramanan Krishnamoorti, the Chief Energy Officer at the University of Houston. Being a graduate of University of Houston College of Business and going back there to law school, I can't say too many nice things about it because it gave me the education I have. And what Dr. Krishnamoorti and his colleagues are doing in the energy field are amazing. I stated before; we can't say it enough. Texas is leading the Nation producing results. This time it is our energy workforce development. Thanks to the University of Houston, San Jacinto Community College, ExxonMobil, and other stakeholders, Houston is launching a pad for efforts like these contained in this legislation today. The University of Houston partnered with the Energy Institute High School to engage high school students and get them interested in working in the energy field. The Texas Gulf Coast Community College Consortium is addressing the workforce need of our industries. The Community College Petrochemical Initiative is a public/private partnership that is unique to the industry. Through programs like the University of Houston Partner, the TGCCCC and CPI, industry job opportunities become realities.    I look forward to working with my colleagues on this legislation to ensure that success that we have in East Harris County where I represent the refineries and chemical plants continues and is duplicated nationwide. And I yield back my time. Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. The gentleman yields back, and that concludes the opening statements. So now we will get to our panel of witnesses. Once again, thanks for being with us this morning. I will introduce you individually and give you each opportunity for 5 minutes for an opening statement.    So our first witness is Dr. Tracy Brundage who is the Vice President of the Workforce Development and Continuing Education at Pennsylvania College of Technology on behalf of Shale NET. So Dr. Brundage, you are recognized for 5 minutes, and the little red lights will come on when your 5 minutes is up. There are two little boxes on the desk, but we do look forward to your testimony. And thanks for being with us, and just be sure to turn the microphone on so we all can hear.</t>
   </si>
   <si>
+    <t>Brundage</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Brundage. Good morning. Thank you, subcommittee members, for the opportunity to speak about the need for workforce development and training in energy and related industries. My name is Tracy Brundage. I am the Vice President for Workforce Development at the Pennsylvania College of Technology, a special mission affiliate of Penn State committed to applied technology education.    My testimony today will focus on Shale NET, a partnership of training providers, economic development, the public workforce system and employers who responded to the call from the energy industry for a trained workforce.    When we ask executives in the gas and oil industry what keeps them up at night, many will respond by expressing their concerns regarding the great crew change. The energy industry is facing a mass exodus of talent and experience. In order for the industry to succeed in the 21st century, it must continue to recruit and retain talent from a more diverse labor pool. The industry must be prepared for the inevitable departure of a large number of workers who are retiring.    To address these challenges, industry, government, the public workforce investment system, economic development agencies, education, and training providers must create the kind of educational infrastructure that will provide a qualified workforce the industry needs. Our work, through Shale NET, over the last several years, has focused on building this infrastructure.    In 2010 Penn College, Westmoreland County Community College in Pennsylvania, and 18 other training providers across Ohio, Pennsylvania, West Virginia, and New York came together to create Shale NET. We were awarded $4.96 million from the U.S. Department of Labor's Community-Based Job Training Grant Initiative to develop and implement a 3-week training program that exposes students to expectations of the industry related to job readiness skills, safety, and technical awareness.    The curriculum was designed from input from industry, stressed consistency of content, and awarded competency-based in industry-recognized credentials. Though the program was open to all, special efforts were directed to recruit veterans, the unemployed, and underemployed. The results for Shale NET are stellar. Over 14,000 individuals explored the Talent Match Web site which provides realistic job profiles of energy occupations and information about the industry. Over 1,100 completed practical training, and almost 3,500 obtained job. The placement rate was 79 percent, and retention three quarters after placement was 82 percent.    In October 2012, Shale NET was awarded a U.S. Department of Labor Trade Adjustment Assistance in Community College and Career Training, known as TAACCCT, Round II grant for $14.96 million which combines the short-term programming of the initial Shale NET grant with stackable college credit offerings.    Shale NET is a best-practice model that can be deployed and implemented in other areas because the curriculum is competency-based, developed with input from industry, consistent, easily replicated, and flexible, dependent upon industry needs. The success of Shale NET is a direct result of strong partnerships with employers and trade associations, workforce investment boards, one stops, economic development agencies such as the Pittsburgh-based Allegheny Conference on Community Development, and local governments who share a common desire to place qualified candidates with employers and family-sustaining careers.    Several innovative strategies are being deployed by Shale NET to bring blended technical curriculum to remote areas, veterans, and underserved populations. One strategy uses state-of-the-art 3D immersive technology and artificial intelligence to assess and teach more advanced technical skills related to natural gas and oil production in a simulated environment. These methodologies create enormous cost savings for educational institutions, embrace leading edge technology honed by the U.S. Department of Defense to train and assess competencies and make capacity-building more feasible and efficient.    For future programs that are introduced to meet energy workforce needs, there are several factors that are imperative: to establish public/private partnerships that become the backbone of developing a broad array of training options across the geography of the United States; to target federal funding in promoting regional collaborations that align with industry's multi-state operations; and to direct funding where the impact is greatest to support energy training initiatives that secure jobs for America's workforce.    Our job is not yet done. Thanks again for this opportunity to speak on Shale NET's behalf.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Thank you, Dr. Brundage. And our next witness is Dr. Rick Jarvis, who is Vice President of Field Construction, Morrow-Meadows Corporation, on behalf of the National Electrical Contractors Association. So, Mr. Jarvis, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Jarvis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Jarvis. Thank you, Chairman Whitfield, Ranking Member Rush, and members of the subcommittee for inviting me here to testify today at this important hearing. On behalf of the National Electrical Contractors Association, the nationally recognized voice of the electrical construction industry, thank you for holding this important hearing regarding the workforce development needs of the energy and manufacturing sectors.    My name is Rick Jarvis, and I serve as Vice President of Field Construction for Morrow-Meadows Corporation, a premier electrical and data communications contractor on the West Coast. I am pleased to be here on behalf of the National Electrical Contractors Association, also known as NECA. NECA is comprised of over 60,000 electrical contracting firms employing over 750,000 electrical workers and producing an annual volume of over $130 billion.    Growth and diversification in the energy economy have created unprecedented opportunities for the electrical construction industry. A record 60 percent of electrical contractors are currently performing work on energy construction projects. Unfortunately, the availability of skilled labor and an aging workforce threatens our ability to continue to meet the demands of the market.    According to the Bureau of Labor Statistics, the anticipated number of job openings for electricians due to growth and retirement from 2012 to 2022 is roughly 224,000. Recruiting new talent to our apprenticeship training program is crucial to the success and future of our industry, and we are working hard to recruit new talent to join the trade.    For over 70 years, the electrical construction industry has been investing $100 million annually in its successful privately funded apprenticeship and training program. This joint venture between NECA and the International Brotherhood of Electrical Workers, the IBW, which I am still a member, gives participants the opportunity to learn the electrical industry while getting paid and without a college education. We are proud of the opportunities offered by our apprenticeship training programs around the country.    I for one am an example of what an apprenticeship program can do for a person. After high school, I worked several different jobs before entering a 4-year IBW-NECA electrical apprenticeship program in 1982. During the course of my training, I earned college credits and learned the difference between a job and a career. After completing my apprenticeship, I rose from journeyman electrician to foreman, then to general foreman. In 1991 I was promoted to the general field superintendent for the Morrow-Meadows San Diego branch office. Four years later I was promoted again, this time to the general field superintendent of their corporate division in Los Angeles, California, where I now hold the position of Vice President of Field Construction.    The IBW-NECA apprenticeship program has trained over 375,000 electricians like myself including an increasing number of minorities, women, and veterans, a focus that we have today. Attracting young talent to this program and others like it is key to meeting workforce demands across the energy sectors.    NECA is proud to support this committee's discussion draft and the committee's efforts to address the workforce development needs of the energy industry. I hope my own experience in this apprenticeship program can serve as a testament to the opportunities for upward mobility that learning a skilled trade can present. We are hopeful that as the Federal Government works to address the workforce development needs on the energy and manufacturing sectors, it assists our industry by actively promoting apprenticeships as a well-paying career option.    We appreciate the committee's interest in collaborating with electrical contractors as mentioned in the draft language. Our training programs are all about skill development for the 21st century workforce. I am happy to take any questions, and we look forward to continued work with this committee as it moves forward with this worthwhile process. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Well, thank you, Mr. Jarvis. And our next witness is Dr. Ramanan Krishnamoorti who is the Chief Energy Officer at the University of Houston. And I am excited you all have a Chief Energy Officer down there at the University of Houston. But thanks for being with us, and you are recognized for 5 minutes for an opening statement.</t>
   </si>
   <si>
+    <t>Krishnamoorti</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Krishnamoorti. Chairman Whitfield, Ranking Member Rush----</t>
   </si>
   <si>
@@ -94,6 +115,9 @@
     <t xml:space="preserve">    Mr. Whitfield. Thank you very much, Dr. Krishnamoorti. Our next witness is Monica Martinez who is the President of Hispanics in Energy. So thanks for being with us, and you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Martinez</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Martinez. Thank you, Mr. Chairman Whitfield and Ranking Member Rush and members of the subcommittee. I want to thank you for the opportunity to testify today on Title II: 21st Century Workforce.</t>
   </si>
   <si>
@@ -103,6 +127,9 @@
     <t xml:space="preserve">    Ms. Martinez. Oh, sure. I commend each of you for taking the time to focus on ensuring that America has a strong, diverse energy and manufacturing workforce. It is a privilege to be here today to support the bipartisan draft legislation that is aimed at accomplishing this critical priority.    I am Monica Martinez, President of Hispanics in Energy. Hispanics in Energy is a non-partisan, non-profit organization whose mission is to engage Hispanic and other diverse communities in our Nation's energy policy dialogue and workforce. And thank you, Congressman Flores, for being a continued supporter.    Our population is over 54 million, making people of Hispanic origin the Nation's largest ethnic or racial minority. At 11.9 million Hispanic households, we comprise roughly 10 percent of our Nation's total households.    For 2012, the median income of Hispanic households was $39,000 whereas the median income of U.S. households was $51,017. The poverty rate among Hispanics is roughly 25.6 percent, whereas the national poverty rate is at 15 percent.    I mention these figures to make sure I am illustrating the disparity that exists. But I also find them useful in the debate when we discuss jobs and economic opportunity. The best way to help alleviate poverty and to grow household income is to expand the outreach and availability of good paying jobs. And I believe that for Hispanics, African Americans, American Indians, women, and all Americans, access to economic opportunity in the energy field can be crucial for helping boost those earnings and bring about greater standards of living.    We have heard about the shale revolution and even more so even when we talk about green energy economy. We know that there are job opportunities available. Recent reports, even ones by HIS, project that there are up to 408,000 jobs available that can be held by African Americans and Hispanics by 2030 in the oil and gas sector. IHS estimates that 63 percent of all job opportunities will be blue collar jobs. This is a truly bipartisan and energy technology neutral opportunity. We know that even the green sector is growing, and they are moving as well. And I think we need to take advantage of it.    Hispanics in Energy over the last year has held community conversations across the country discussing this very opportunity. From that effort we have learned several things. General dissemination of energy opportunities to a variety of stakeholders is key.    Recent research indicates that the number one obstacle to women considering employment in the oil and gas industry is lack of awareness and understanding of the job opportunities and career development available. Just by outreaching and making sure we are sharing the message, we can overcome this obstacle.    Engagement of students at all levels from when they are young sprouts, early age in elementary and beyond, is critical to engaging them. When we think about it, of the 70,000 undergraduate engineers, only 12 percent represent all under-represented groups, and the pool of under-represented engineers gets even smaller at the graduate level. We must do something to change this.    We also need to expand the network of engagement by energy providers and companies to create a pipeline of prospective networks, and this includes working with various groups--veterans workforce development associations, other associations like our own--to create that partnership within that non-profit and public/private sector is key.    The fourth principle is really thinking about pathways that need to be developed for different demographic groups and segments of the population. I recognize the Center for Energy Workforce Development that can attest that the education and skills needed are the same for everyone, but the best way to prepare individuals may in fact be different. And this may include different wrap-around services or other items to help ensure their success.    The last principle I mention, and this is because I was a former regulator within the State of Michigan, and my question always was, we have to look at the data and analyze, just making sure everything that you do--and I know this is mentioned in the draft legislation--look at the analysis and create benchmarks. We need to assess the performance and also find and discover best practices so that what we are doing in one region can be replicated in other regions as appropriate. Those are key.    In closing, I just really want to thank the committee for their work. If we do not take action today to improve the opportunities for under-represented communities in the workforce, we will be only adding to the current disparity that exists between the energy industry and the community it serves. The energy industry can be more reflective of the characteristics of our population, and by doing so, our whole economy will benefit. Thank you.</t>
   </si>
   <si>
+    <t>Wilson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wilson. Mr. Chairman, Ranking Member Rush, and the other members of the committee, my deepest gratitude.    I am a 36-year-old black man who was raised in the South Side Englewood neighborhood of Chicago. I was born to a single, teenage mother, Elizabeth Wilson, and have two younger siblings, Natasha and Tabitha Wilson. My mother's parents died while she was in her teens. My father played no role in our lives. Today I don't know if he is dead or alive.    We were poor. My family received SNAP benefits, and a small amount of money that my mother received afforded us a very humble apartment during a period in Chicago where the murder rate was nearly twice the rate it is today. Despite my impoverished circumstances, I matriculated through the Chicago Public School System and graduated from Lindblom Technical High School. In 1996, my joy of having survived to the age of 17 and graduating high school displaced my need to put together a long-term life strategy and plan of execution. That lack of having specific goals contributed to me becoming a teenage husband and father, ready to repeat the cycle that is commonplace amongst those in communities similar to mine. The walls of hopelessness and poverty waited to trap yet another tenant and disrupt the generational foundation necessary to break this destructive cycle.    The birth of my firstborn, Erin Wilson, provided me an opportunity to be a man whose values and principles would be the polar opposite of the man responsible for my birth. That opportunity came in the form of a career serving in the U.S. Navy as a nuclear operator and submariner. My 6-year career provided me the base knowledge and unique skill set that was attractive and needed by the commercial nuclear industry.    Exelon Nuclear gave me my first opportunity as an IBEW union chemistry technician and instructor. That opportunity set a trajectory which allowed me to obtain my senior reactor operator certification for training in December 2013. Since Exelon, I have worked at various commercial sites. Every job I have had in the industry has provided me with at least $100,000 annual income. The new awareness of this life-changing career path inspired me to partner with my best friend, Dion Clark, of TCI Solutions, also a Navy nuclear operator and senior reactor operator certified trainer. Though Dion served as part of the Navy surface fleet, we won't hold that against him. Dion, a product of Chicago's South Side Robbins neighborhood, and I decide that we wanted to share the opportunity we had been given with our community, the under-represented, disadvantaged, and underserved. Our philosophy was simple: If we could make it, so could they.    And here is how: We created the Legacy Initiative, a program that is rooted in the concept of teaching young people how to think critically. Our youth span from elementary through high school, and we challenge them to take a moment and ask, with this decision, is what I am about to gain worth what I might lose? We incentivize this intrinsic behavioral change by using ourselves as muses, making them aware of the opportunity and educating them on how to attain these opportunities.    From 2008 until now, we have taught our character development and logic curriculum to more than 4,000 youth in Chicagoland, Arizona, and Pennsylvania. We have partnered with the Center for Energy and Workforce Development. We are now implementing the second phase of our strategy to pipeline these young people to those post-secondary institutions that have 2- and 4-year STEM degrees. These individuals in turn will become the qualified, skilled workforce that the energy and manufacturing industries need.    This bill would make what were a series of chance encounters and good timing for me into a template for deliberate, rewarding strategies for those demographics I represent and more. As evidence, I offer that my daughter, who graduates in June from Kenwood Academy in Chicago, will be entering the historically black university, Howard, majoring in nuclear engineering. My oldest son, Willie Hampton, graduates next year and intends on obtaining his 2-year technology degree, getting a job as a nuclear operator, taking courses while he is utilizing his company's tuition reimbursement benefit, and then graduate with his undergraduate degree at the same time as his high school classmates. But he will have 2 years of work experience, having enjoyed a six-figure income and having no debt.    Our paths like the ones funded and supported by this bill ensures that my 5-year-old son, Charles Wilson II, and others in his generation don't have to experience poverty and can start to build the generational wealth and opportunity that evaded the generations before them. Thank you.</t>
   </si>
   <si>
@@ -166,6 +193,12 @@
     <t>400320</t>
   </si>
   <si>
+    <t>Pitts</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pitts. Thank you, Mr. Chairman. Let me continue with you, Mr. Wilson. You have a compelling story. I really appreciate hearing it. And you went in the Navy, and that was the key. What were your skills before you went in and how was the Navy effective in changing your skill level?</t>
   </si>
   <si>
@@ -205,6 +238,12 @@
     <t>412189</t>
   </si>
   <si>
+    <t>McNerney</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McNerney. I enjoy being the first one with 3 minutes, Mr. Chairman. No, I want to thank the chairman and the ranking member for their work on this and the panelists. They have very good testimony. We have the Labor Statistics' unemployment rate for African Americans at 10 percent, more than twice that for whites. Hispanics, almost as bad, some of the statistics that Ms. Martinez raised. And then on the other hand, we have all these opportunities in the energy industry. Solar industry grew 86 percent since 2010. Wind industry, 73,000 full-time workers. Energy efficiency, 1.3 to 1.9 million new jobs by 2050. So we have it and we have opportunity. What are we going to do about it? Well, we have some ideas up here on the panel. I thank you very much for that.    Dr. Brundage, I am very excited by Shale NET. I haven't heard anything about it before. I am going to ask my staff to get a copy of a description of that, see how applicable that would be. Could you give me some idea how Shale NET is funded?</t>
   </si>
   <si>
@@ -226,6 +265,12 @@
     <t>412280</t>
   </si>
   <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>Gregg</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Harper. Thank you, Mr. Chairman. Thanks to each of you for being here on a very important topic, and I, too, would like to say, Mr. Wilson, thank you for the inspiring story. And I am not one who wants to brag on my academic accomplishments, but I did graduate in the top 100 percent of my class. So I wanted to go ahead and throw that out. It was close, too, by the way.    Mr. Jarvis, you talked about the importance of having a flexible workforce available to adapt to emerging trends. Can you give me an example of what you mean when you say it is unnecessary and short-sighted to train someone in a single technology?</t>
   </si>
   <si>
@@ -256,6 +301,12 @@
     <t>412209</t>
   </si>
   <si>
+    <t>Loebsack</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Loebsack. Thank you, Mr. Chair, and our ranking member. This really is a really great opportunity to hear from you folks. It has been kind of an eclectic panel I think to say the least, a lot of different things that have been mentioned here.    I might ask just one question. I do want to just make some comments about workforce development more generally, and I do want to kind of throw a question at you folks that may be unfair and probably should be directed more at my colleagues and as we work through this bill and do what we can to make it better eventually. But I was on the Education in the Workforce Committee for 8 years, and we dealt with a lot of these issues on that committee. We passed the Workforce Innovation Opportunity Act last year which was the reauthorization of the Workforce Investment Act. There is a huge overlap between what we are talking about today here with respect to the Department of Energy and the various things that have been talked about today and what the Department of Labor does. And I know the Administration is trying to interface some of the agencies and what they do.    And again, Mr. Chair and Ranking Member, this is something I would like to be working with you folks on down the road, sort of how can we get some of these agencies to talk to one another and work together and streamline some of these programs, maybe combine some of the efforts if possible? But I do want to ask, and it is kind of an unfair question, I admit, to all of you, because you are nodding. If you will, Doctor, any thoughts about how we might be able to do that instead of reinventing the wheel every time, having one department do something, have another department do something that might be similar to what that department is doing. Any thoughts about that at all? I know it is throwing you folks for a loop here, and maybe I am doing the same thing to my colleagues.</t>
   </si>
   <si>
@@ -310,6 +361,9 @@
     <t>412487</t>
   </si>
   <si>
+    <t>McKinley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McKinley. Thank you, Mr. Chairman. I had probably 5 minutes of questioning. We are going to try to cut it back down to three. The first observation I had about this whole issue--I was really looking forward to be educated about this, and I think some of you have touched on it. But the primary issue is about rural America. I think we struggle. Coming from West Virginia in a small community is how do we have an educated workforce, ready for manufacturing, energy, when we don't have a critical mass? So I am applauding--what we did last year in the last Congress, we introduced a bill. It was 3524 that tried to focus funds going into economically deprived communities to help out, to plus them up some in the grants and programs for education. I think we ought to be looking at that as well. I don't know whether any of you are familiar with that bill that was introduced last year, but I know that Tracy, you got something going at Penn College that is also at Pierpont where we have a training program there for Shale NET.</t>
   </si>
   <si>
@@ -373,6 +427,12 @@
     <t>412460</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman. Dr. Brundage, thanks largely to the oil and gas industry, coupled with programs like Shale NET that is in our state there at State College, unemployment in shale counties in my district in Eastern and Southeastern Ohio has fallen 66 percent since 2010. In fact, these shale counties are the economic impacts, the positive economic impacts. So the shale plays--that is what is driving the unemployment rate down for our entire state.    And because of this, we have got to continually look for opportunities like Shale NET to prepare our students for the jobs that are here today and that are coming tomorrow.    Quick question. If the goal of Shale NET is to increase capacity in terms of qualified workforce to meet the needs of the industry, how successful in your view has Shale NET been? Can you give us some specifics?</t>
   </si>
   <si>
@@ -388,6 +448,12 @@
     <t>412212</t>
   </si>
   <si>
+    <t>Sarbanes</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sarbanes. Thank you, Mr. Chairman. I want to thank all of you for your testimony. Ms. Martinez and Mr. Wilson, I wanted to ask this question. Obviously in the STEM arena we want to make sure that the academic curriculum that is offered in the classroom for young people in that K-12 space is as rigorous and holistic as it can possibly be. But I am also interested in the opportunities to connect young people with the experiences outside the classroom, in a sense, get them out of the classroom in various ways so maybe their horizons are broadened and they can see the connection to that pipeline opportunity that exists.    So if each of you could just very briefly comment on that idea of how we get young people in the K-12 space out of the classroom and connected to these career horizons, that would be helpful.</t>
   </si>
   <si>
@@ -413,6 +479,9 @@
   </si>
   <si>
     <t>412480</t>
+  </si>
+  <si>
+    <t>Flores</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Flores. Thank you, Mr. Chairman. I want to thank you and also Ranking Member Rush for hosting this hearing today. I also want to thank each of you for your testimony. Given the timing and how little time we have left to vote, I am going to commend each of you for the jobs that you have done. I commend you for the quality of your testimony. Mr. Wilson, all I can say is wow. What an awesome piece of testimony. Ms. Martinez, thank you for what you are doing.    I think given the lack of time we have, I will just submit my questions in writing. Thank you.</t>
@@ -767,7 +836,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,7 +844,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,2813 +866,3245 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G40" t="s">
+        <v>59</v>
+      </c>
       <c r="H40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G42" t="s">
+        <v>59</v>
+      </c>
       <c r="H42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G44" t="s">
+        <v>59</v>
+      </c>
       <c r="H44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G46" t="s">
+        <v>59</v>
+      </c>
       <c r="H46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G48" t="s">
+        <v>59</v>
+      </c>
       <c r="H48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G50" t="s">
+        <v>59</v>
+      </c>
       <c r="H50" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G52" t="s">
+        <v>74</v>
+      </c>
       <c r="H52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G54" t="s">
+        <v>74</v>
+      </c>
       <c r="H54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>62</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G56" t="s">
+        <v>74</v>
+      </c>
       <c r="H56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>69</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G58" t="s">
+        <v>83</v>
+      </c>
       <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>69</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G60" t="s">
+        <v>83</v>
+      </c>
       <c r="H60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>69</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G62" t="s">
+        <v>83</v>
+      </c>
       <c r="H62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>69</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G64" t="s">
+        <v>83</v>
+      </c>
       <c r="H64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>79</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G67" t="s">
+        <v>95</v>
+      </c>
       <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>79</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G69" t="s">
+        <v>95</v>
+      </c>
       <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>79</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G71" t="s">
+        <v>95</v>
+      </c>
       <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>79</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G73" t="s">
+        <v>95</v>
+      </c>
       <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>37</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>79</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G75" t="s">
+        <v>95</v>
+      </c>
       <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>37</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>79</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G77" t="s">
+        <v>95</v>
+      </c>
       <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>37</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>79</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G79" t="s">
+        <v>95</v>
+      </c>
       <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>28</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>79</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G81" t="s">
+        <v>95</v>
+      </c>
       <c r="H81" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>28</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>79</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G83" t="s">
+        <v>95</v>
+      </c>
       <c r="H83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>97</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G85" t="s">
+        <v>115</v>
+      </c>
       <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>97</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G87" t="s">
+        <v>115</v>
+      </c>
       <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>97</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G89" t="s">
+        <v>115</v>
+      </c>
       <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>22</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>97</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G91" t="s">
+        <v>115</v>
+      </c>
       <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>22</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>15</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G95" t="s">
+        <v>18</v>
+      </c>
       <c r="H95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>22</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G97" t="s">
+        <v>18</v>
+      </c>
       <c r="H97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>22</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>18</v>
+      </c>
       <c r="H99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I99" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>28</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>15</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>18</v>
+      </c>
       <c r="H101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>28</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>18</v>
+      </c>
       <c r="H103" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I103" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>118</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G105" t="s">
+        <v>137</v>
+      </c>
       <c r="H105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>22</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>118</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G107" t="s">
+        <v>137</v>
+      </c>
       <c r="H107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>123</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G109" t="s">
+        <v>144</v>
+      </c>
       <c r="H109" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>33</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>123</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G111" t="s">
+        <v>144</v>
+      </c>
       <c r="H111" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I111" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>33</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>123</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G113" t="s">
+        <v>144</v>
+      </c>
       <c r="H113" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I113" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>37</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>123</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G115" t="s">
+        <v>144</v>
+      </c>
       <c r="H115" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I115" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>132</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>154</v>
+      </c>
+      <c r="G117" t="s">
+        <v>155</v>
+      </c>
       <c r="H117" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I117" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>134</v>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96084.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96084.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t>400160</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Green</t>
@@ -836,7 +842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -844,7 +850,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -869,3242 +875,3440 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" t="s"/>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G40" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" t="s">
-        <v>37</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G42" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="s">
-        <v>37</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G44" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" t="s">
-        <v>37</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>39</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G48" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G50" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G52" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G56" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G58" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" t="s">
-        <v>25</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G60" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s">
-        <v>25</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>27</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G62" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" t="s">
-        <v>25</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>27</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G64" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" t="s">
-        <v>25</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>27</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G67" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" t="s">
-        <v>37</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>39</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G69" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" t="s">
-        <v>37</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>39</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G71" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" t="s">
-        <v>37</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>39</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G73" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I73" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" t="s">
-        <v>37</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>39</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G75" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" t="s">
-        <v>37</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>39</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G77" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="H77" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I77" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" t="s">
-        <v>37</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>39</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G79" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="H79" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" t="s">
-        <v>28</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>30</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G81" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="H81" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" t="s">
-        <v>28</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>30</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G83" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="H83" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I83" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G85" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="I85" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" t="s">
-        <v>22</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>24</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G87" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="I87" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" t="s">
-        <v>22</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>24</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G89" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="H89" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="I89" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" t="s">
-        <v>22</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>24</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G91" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="H91" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="I91" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" t="s">
-        <v>22</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>24</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G95" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I95" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" t="s">
-        <v>22</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>24</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G97" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H97" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I97" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" t="s">
-        <v>22</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>24</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G99" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H99" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I99" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" t="s">
-        <v>28</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>30</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G101" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H101" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I101" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" t="s">
-        <v>28</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>30</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G103" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H103" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I103" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" t="s">
-        <v>13</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G105" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="H105" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I105" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="J105" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" t="s">
-        <v>22</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>24</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G107" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="H107" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I107" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="J107" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" t="s">
-        <v>13</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G109" t="s">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="H109" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I109" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J109" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" t="s">
-        <v>33</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>35</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G111" t="s">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="H111" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I111" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J111" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" t="s">
-        <v>33</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>35</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G113" t="s">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="H113" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I113" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J113" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" t="s">
-        <v>37</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>39</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G115" t="s">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="H115" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I115" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J115" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G117" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="H117" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="I117" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="J117" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" t="s">
-        <v>13</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>157</v>
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
